--- a/printer/templates/template_2_total.xlsx
+++ b/printer/templates/template_2_total.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\#### D\Work\# python\chickenPrinter\printer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\#### D\Work\# python\chickenPrinter_2\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64CFAAD-8C70-4222-AB8C-DACBA4141322}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E44FA0E-D22A-410C-8AD4-42482F4BF011}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>name</t>
   </si>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -688,6 +688,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1005,7 +1006,7 @@
   <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:H17"/>
+      <selection activeCell="B15" sqref="B15:N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1212,7 @@
       <c r="H11" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I11" s="67" t="s">
         <v>23</v>
       </c>
       <c r="O11" s="42"/>
@@ -1227,7 +1228,7 @@
       <c r="H12" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I12" s="67" t="s">
         <v>24</v>
       </c>
       <c r="J12" s="32"/>
@@ -1311,7 +1312,7 @@
       <c r="N16" s="64"/>
       <c r="O16" s="19"/>
     </row>
-    <row r="17" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="16"/>
       <c r="B17" s="65" t="s">
         <v>49</v>
